--- a/HW1/student.xlsx
+++ b/HW1/student.xlsx
@@ -2294,7 +2294,7 @@
       </c>
       <c r="H61" s="3" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
